--- a/Tree Request Dash.xlsx
+++ b/Tree Request Dash.xlsx
@@ -739,10 +739,10 @@
         <v>1032</v>
       </c>
       <c r="B30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1300,10 +1300,10 @@
         <v>1090</v>
       </c>
       <c r="B81" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1784,10 +1784,10 @@
         <v>2012</v>
       </c>
       <c r="B125" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -5504,7 +5504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5515,7 +5515,7 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>schoolid</t>
+          <t>orderid</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -5525,7 +5525,52 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>schoolid</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>submit_time</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>cust_name</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>donation</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>pickup</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>total_paid</t>
         </is>
       </c>
     </row>
@@ -5535,13 +5580,54 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1090</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
-        <v>1639848782.116239</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Northern Red Oak</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1090</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>20.0000</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1639098800</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Seth Oday</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>123 example street (2048)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -5549,13 +5635,54 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>1032</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1639848482.116239</v>
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Red Maple</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1090</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.0000</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1639098800</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Seth Oday</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>123 example street (2048)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -5563,13 +5690,54 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1032</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1635848782.116239</v>
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Pin Oak</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1090</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>15.0000</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1639098800</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Jus Mille</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>291 saint botolph street (2048)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -5577,13 +5745,54 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Northern Red Oak</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>1090</v>
       </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>12</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>20.0000</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1639098800</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Jus Mille</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>291 saint botolph street (2048)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -5591,13 +5800,54 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2012</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1639762382.116239</v>
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Red Maple</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1090</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>25.0000</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1639098800</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Jus Mille</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>291 saint botolph street (2048)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
     </row>
   </sheetData>
